--- a/excel table/tables.xlsx
+++ b/excel table/tables.xlsx
@@ -15,7 +15,9 @@
     <sheet name="Assumptions" sheetId="3" r:id="rId1"/>
     <sheet name="Table of Threats" sheetId="1" r:id="rId2"/>
     <sheet name="Bug Table" sheetId="4" r:id="rId3"/>
-    <sheet name="Risk Table" sheetId="5" r:id="rId4"/>
+    <sheet name="Risk Tables" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="70">
   <si>
     <t>Diagram Element</t>
   </si>
@@ -167,23 +169,83 @@
     <t>Risk Title</t>
   </si>
   <si>
-    <t>Likelihood</t>
-  </si>
-  <si>
-    <t>Normalized Risk Severity</t>
-  </si>
-  <si>
-    <t>Severity ($)</t>
-  </si>
-  <si>
     <t>Mitigation Cost</t>
+  </si>
+  <si>
+    <t>Likelihood Factors</t>
+  </si>
+  <si>
+    <t>Vulnerability Factors</t>
+  </si>
+  <si>
+    <t>Overall Likelihood</t>
+  </si>
+  <si>
+    <t>Technical Impact</t>
+  </si>
+  <si>
+    <t>Business Impact</t>
+  </si>
+  <si>
+    <t>Overall Impact</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Motive</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Ease of Exploit</t>
+  </si>
+  <si>
+    <t>Ease of Discovery</t>
+  </si>
+  <si>
+    <t>Awareness</t>
+  </si>
+  <si>
+    <t>Intrusion Detection</t>
+  </si>
+  <si>
+    <t>Loss of Confidentiality</t>
+  </si>
+  <si>
+    <t>Loss of Integrity</t>
+  </si>
+  <si>
+    <t>Loss of Availablity</t>
+  </si>
+  <si>
+    <t>Loss of Accountablity</t>
+  </si>
+  <si>
+    <t>Financial Damage</t>
+  </si>
+  <si>
+    <t>Reputation Damage</t>
+  </si>
+  <si>
+    <t>Non-compliance</t>
+  </si>
+  <si>
+    <t>Privacy Violation</t>
+  </si>
+  <si>
+    <t>Risk Rating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +256,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -226,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -433,18 +503,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,6 +618,99 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,6 +726,255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59ABBCE9-7597-4FC5-8F02-EFDD99ADA581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2438400" y="1143000"/>
+          <a:ext cx="11439525" cy="4791075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50CA512-129A-40E1-B657-0B8FA0E5679C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="6477000"/>
+          <a:ext cx="8677275" cy="4791075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1FC617-8599-41DD-B064-2977038EB832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="11620500"/>
+          <a:ext cx="8905875" cy="4791075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8891602A-29D7-4952-ABA4-BD29E13E76BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="16764000"/>
+          <a:ext cx="8924925" cy="4791075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,7 +1277,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,273 +1288,276 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A4:A11 A12:A16 A17:A26" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1087,7 +1566,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,327 +1582,327 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1437,7 +1916,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A2" sqref="A2:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,343 +1933,343 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1805,465 +2284,2373 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A4:A26" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="4" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="14">
+        <f>L31</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f>L58</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="15">
+        <f t="shared" ref="I5:I26" si="0">L32</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" ref="J5:J26" si="1">L59</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="30" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="23"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="32">
+        <v>0</v>
+      </c>
+      <c r="E31" s="33">
+        <v>0</v>
+      </c>
+      <c r="F31" s="33">
+        <v>0</v>
+      </c>
+      <c r="G31" s="34">
+        <v>0</v>
+      </c>
+      <c r="H31" s="35">
+        <v>0</v>
+      </c>
+      <c r="I31" s="33">
+        <v>0</v>
+      </c>
+      <c r="J31" s="36">
+        <v>0</v>
+      </c>
+      <c r="K31" s="36">
+        <v>0</v>
+      </c>
+      <c r="L31" s="34">
+        <f>AVERAGE(D31:K31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="37">
+        <v>0</v>
+      </c>
+      <c r="E32" s="38">
+        <v>0</v>
+      </c>
+      <c r="F32" s="38">
+        <v>0</v>
+      </c>
+      <c r="G32" s="39">
+        <v>0</v>
+      </c>
+      <c r="H32" s="40">
+        <v>0</v>
+      </c>
+      <c r="I32" s="38">
+        <v>0</v>
+      </c>
+      <c r="J32" s="41">
+        <v>0</v>
+      </c>
+      <c r="K32" s="41">
+        <v>0</v>
+      </c>
+      <c r="L32" s="39">
+        <f t="shared" ref="L32:L53" si="2">AVERAGE(D32:K32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="42">
+        <v>0</v>
+      </c>
+      <c r="E33" s="43">
+        <v>0</v>
+      </c>
+      <c r="F33" s="43">
+        <v>0</v>
+      </c>
+      <c r="G33" s="44">
+        <v>0</v>
+      </c>
+      <c r="H33" s="45">
+        <v>0</v>
+      </c>
+      <c r="I33" s="43">
+        <v>0</v>
+      </c>
+      <c r="J33" s="46">
+        <v>0</v>
+      </c>
+      <c r="K33" s="46">
+        <v>0</v>
+      </c>
+      <c r="L33" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="47">
+        <v>0</v>
+      </c>
+      <c r="E34" s="38">
+        <v>0</v>
+      </c>
+      <c r="F34" s="38">
+        <v>0</v>
+      </c>
+      <c r="G34" s="39">
+        <v>0</v>
+      </c>
+      <c r="H34" s="40">
+        <v>0</v>
+      </c>
+      <c r="I34" s="38">
+        <v>0</v>
+      </c>
+      <c r="J34" s="41">
+        <v>0</v>
+      </c>
+      <c r="K34" s="41">
+        <v>0</v>
+      </c>
+      <c r="L34" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="42">
+        <v>0</v>
+      </c>
+      <c r="E35" s="43">
+        <v>0</v>
+      </c>
+      <c r="F35" s="43">
+        <v>0</v>
+      </c>
+      <c r="G35" s="44">
+        <v>0</v>
+      </c>
+      <c r="H35" s="45">
+        <v>0</v>
+      </c>
+      <c r="I35" s="43">
+        <v>0</v>
+      </c>
+      <c r="J35" s="46">
+        <v>0</v>
+      </c>
+      <c r="K35" s="46">
+        <v>0</v>
+      </c>
+      <c r="L35" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="47">
+        <v>0</v>
+      </c>
+      <c r="E36" s="38">
+        <v>0</v>
+      </c>
+      <c r="F36" s="38">
+        <v>0</v>
+      </c>
+      <c r="G36" s="39">
+        <v>0</v>
+      </c>
+      <c r="H36" s="40">
+        <v>0</v>
+      </c>
+      <c r="I36" s="38">
+        <v>0</v>
+      </c>
+      <c r="J36" s="41">
+        <v>0</v>
+      </c>
+      <c r="K36" s="41">
+        <v>0</v>
+      </c>
+      <c r="L36" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="42">
+        <v>0</v>
+      </c>
+      <c r="E37" s="43">
+        <v>0</v>
+      </c>
+      <c r="F37" s="43">
+        <v>0</v>
+      </c>
+      <c r="G37" s="44">
+        <v>0</v>
+      </c>
+      <c r="H37" s="45">
+        <v>0</v>
+      </c>
+      <c r="I37" s="43">
+        <v>0</v>
+      </c>
+      <c r="J37" s="46">
+        <v>0</v>
+      </c>
+      <c r="K37" s="46">
+        <v>0</v>
+      </c>
+      <c r="L37" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="47">
+        <v>0</v>
+      </c>
+      <c r="E38" s="38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="39">
+        <v>0</v>
+      </c>
+      <c r="H38" s="40">
+        <v>0</v>
+      </c>
+      <c r="I38" s="38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="41">
+        <v>0</v>
+      </c>
+      <c r="K38" s="41">
+        <v>0</v>
+      </c>
+      <c r="L38" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="42">
+        <v>0</v>
+      </c>
+      <c r="E39" s="43">
+        <v>0</v>
+      </c>
+      <c r="F39" s="43">
+        <v>0</v>
+      </c>
+      <c r="G39" s="44">
+        <v>0</v>
+      </c>
+      <c r="H39" s="45">
+        <v>0</v>
+      </c>
+      <c r="I39" s="43">
+        <v>0</v>
+      </c>
+      <c r="J39" s="46">
+        <v>0</v>
+      </c>
+      <c r="K39" s="46">
+        <v>0</v>
+      </c>
+      <c r="L39" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B40" s="19"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="47">
+        <v>0</v>
+      </c>
+      <c r="E40" s="38">
+        <v>0</v>
+      </c>
+      <c r="F40" s="38">
+        <v>0</v>
+      </c>
+      <c r="G40" s="39">
+        <v>0</v>
+      </c>
+      <c r="H40" s="40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="38">
+        <v>0</v>
+      </c>
+      <c r="J40" s="41">
+        <v>0</v>
+      </c>
+      <c r="K40" s="41">
+        <v>0</v>
+      </c>
+      <c r="L40" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="42">
+        <v>0</v>
+      </c>
+      <c r="E41" s="43">
+        <v>0</v>
+      </c>
+      <c r="F41" s="43">
+        <v>0</v>
+      </c>
+      <c r="G41" s="44">
+        <v>0</v>
+      </c>
+      <c r="H41" s="45">
+        <v>0</v>
+      </c>
+      <c r="I41" s="43">
+        <v>0</v>
+      </c>
+      <c r="J41" s="46">
+        <v>0</v>
+      </c>
+      <c r="K41" s="46">
+        <v>0</v>
+      </c>
+      <c r="L41" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="47">
+        <v>0</v>
+      </c>
+      <c r="E42" s="38">
+        <v>0</v>
+      </c>
+      <c r="F42" s="38">
+        <v>0</v>
+      </c>
+      <c r="G42" s="39">
+        <v>0</v>
+      </c>
+      <c r="H42" s="40">
+        <v>0</v>
+      </c>
+      <c r="I42" s="38">
+        <v>0</v>
+      </c>
+      <c r="J42" s="41">
+        <v>0</v>
+      </c>
+      <c r="K42" s="41">
+        <v>0</v>
+      </c>
+      <c r="L42" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="42">
+        <v>0</v>
+      </c>
+      <c r="E43" s="43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="44">
+        <v>0</v>
+      </c>
+      <c r="H43" s="45">
+        <v>0</v>
+      </c>
+      <c r="I43" s="43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="46">
+        <v>0</v>
+      </c>
+      <c r="K43" s="46">
+        <v>0</v>
+      </c>
+      <c r="L43" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="47">
+        <v>0</v>
+      </c>
+      <c r="E44" s="38">
+        <v>0</v>
+      </c>
+      <c r="F44" s="38">
+        <v>0</v>
+      </c>
+      <c r="G44" s="39">
+        <v>0</v>
+      </c>
+      <c r="H44" s="40">
+        <v>0</v>
+      </c>
+      <c r="I44" s="38">
+        <v>0</v>
+      </c>
+      <c r="J44" s="41">
+        <v>0</v>
+      </c>
+      <c r="K44" s="41">
+        <v>0</v>
+      </c>
+      <c r="L44" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="42">
+        <v>0</v>
+      </c>
+      <c r="E45" s="43">
+        <v>0</v>
+      </c>
+      <c r="F45" s="43">
+        <v>0</v>
+      </c>
+      <c r="G45" s="44">
+        <v>0</v>
+      </c>
+      <c r="H45" s="45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="43">
+        <v>0</v>
+      </c>
+      <c r="J45" s="46">
+        <v>0</v>
+      </c>
+      <c r="K45" s="46">
+        <v>0</v>
+      </c>
+      <c r="L45" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="47">
+        <v>0</v>
+      </c>
+      <c r="E46" s="38">
+        <v>0</v>
+      </c>
+      <c r="F46" s="38">
+        <v>0</v>
+      </c>
+      <c r="G46" s="39">
+        <v>0</v>
+      </c>
+      <c r="H46" s="40">
+        <v>0</v>
+      </c>
+      <c r="I46" s="38">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41">
+        <v>0</v>
+      </c>
+      <c r="K46" s="41">
+        <v>0</v>
+      </c>
+      <c r="L46" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="42">
+        <v>0</v>
+      </c>
+      <c r="E47" s="43">
+        <v>0</v>
+      </c>
+      <c r="F47" s="43">
+        <v>0</v>
+      </c>
+      <c r="G47" s="44">
+        <v>0</v>
+      </c>
+      <c r="H47" s="45">
+        <v>0</v>
+      </c>
+      <c r="I47" s="43">
+        <v>0</v>
+      </c>
+      <c r="J47" s="46">
+        <v>0</v>
+      </c>
+      <c r="K47" s="46">
+        <v>0</v>
+      </c>
+      <c r="L47" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="47">
+        <v>0</v>
+      </c>
+      <c r="E48" s="38">
+        <v>0</v>
+      </c>
+      <c r="F48" s="38">
+        <v>0</v>
+      </c>
+      <c r="G48" s="39">
+        <v>0</v>
+      </c>
+      <c r="H48" s="40">
+        <v>0</v>
+      </c>
+      <c r="I48" s="38">
+        <v>0</v>
+      </c>
+      <c r="J48" s="41">
+        <v>0</v>
+      </c>
+      <c r="K48" s="41">
+        <v>0</v>
+      </c>
+      <c r="L48" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="42">
+        <v>0</v>
+      </c>
+      <c r="E49" s="43">
+        <v>0</v>
+      </c>
+      <c r="F49" s="43">
+        <v>0</v>
+      </c>
+      <c r="G49" s="44">
+        <v>0</v>
+      </c>
+      <c r="H49" s="45">
+        <v>0</v>
+      </c>
+      <c r="I49" s="43">
+        <v>0</v>
+      </c>
+      <c r="J49" s="46">
+        <v>0</v>
+      </c>
+      <c r="K49" s="46">
+        <v>0</v>
+      </c>
+      <c r="L49" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="47">
+        <v>0</v>
+      </c>
+      <c r="E50" s="38">
+        <v>0</v>
+      </c>
+      <c r="F50" s="38">
+        <v>0</v>
+      </c>
+      <c r="G50" s="39">
+        <v>0</v>
+      </c>
+      <c r="H50" s="40">
+        <v>0</v>
+      </c>
+      <c r="I50" s="38">
+        <v>0</v>
+      </c>
+      <c r="J50" s="41">
+        <v>0</v>
+      </c>
+      <c r="K50" s="41">
+        <v>0</v>
+      </c>
+      <c r="L50" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="42">
+        <v>0</v>
+      </c>
+      <c r="E51" s="43">
+        <v>0</v>
+      </c>
+      <c r="F51" s="43">
+        <v>0</v>
+      </c>
+      <c r="G51" s="44">
+        <v>0</v>
+      </c>
+      <c r="H51" s="45">
+        <v>0</v>
+      </c>
+      <c r="I51" s="43">
+        <v>0</v>
+      </c>
+      <c r="J51" s="46">
+        <v>0</v>
+      </c>
+      <c r="K51" s="46">
+        <v>0</v>
+      </c>
+      <c r="L51" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="B52" s="19"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="47">
+        <v>0</v>
+      </c>
+      <c r="E52" s="38">
+        <v>0</v>
+      </c>
+      <c r="F52" s="38">
+        <v>0</v>
+      </c>
+      <c r="G52" s="39">
+        <v>0</v>
+      </c>
+      <c r="H52" s="40">
+        <v>0</v>
+      </c>
+      <c r="I52" s="38">
+        <v>0</v>
+      </c>
+      <c r="J52" s="41">
+        <v>0</v>
+      </c>
+      <c r="K52" s="41">
+        <v>0</v>
+      </c>
+      <c r="L52" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="15"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="48">
+        <v>0</v>
+      </c>
+      <c r="E53" s="49">
+        <v>0</v>
+      </c>
+      <c r="F53" s="49">
+        <v>0</v>
+      </c>
+      <c r="G53" s="50">
+        <v>0</v>
+      </c>
+      <c r="H53" s="51">
+        <v>0</v>
+      </c>
+      <c r="I53" s="49">
+        <v>0</v>
+      </c>
+      <c r="J53" s="52">
+        <v>0</v>
+      </c>
+      <c r="K53" s="52">
+        <v>0</v>
+      </c>
+      <c r="L53" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L57" s="23"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="32">
+        <v>0</v>
+      </c>
+      <c r="E58" s="33">
+        <v>0</v>
+      </c>
+      <c r="F58" s="33">
+        <v>0</v>
+      </c>
+      <c r="G58" s="34">
+        <v>0</v>
+      </c>
+      <c r="H58" s="35">
+        <v>0</v>
+      </c>
+      <c r="I58" s="33">
+        <v>0</v>
+      </c>
+      <c r="J58" s="36">
+        <v>0</v>
+      </c>
+      <c r="K58" s="36">
+        <v>0</v>
+      </c>
+      <c r="L58" s="34">
+        <f>AVERAGE(D58:K58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="37">
+        <v>0</v>
+      </c>
+      <c r="E59" s="38">
+        <v>0</v>
+      </c>
+      <c r="F59" s="38">
+        <v>0</v>
+      </c>
+      <c r="G59" s="39">
+        <v>0</v>
+      </c>
+      <c r="H59" s="40">
+        <v>0</v>
+      </c>
+      <c r="I59" s="38">
+        <v>0</v>
+      </c>
+      <c r="J59" s="41">
+        <v>0</v>
+      </c>
+      <c r="K59" s="41">
+        <v>0</v>
+      </c>
+      <c r="L59" s="39">
+        <f t="shared" ref="L59:L80" si="3">AVERAGE(D59:K59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="42">
+        <v>0</v>
+      </c>
+      <c r="E60" s="43">
+        <v>0</v>
+      </c>
+      <c r="F60" s="43">
+        <v>0</v>
+      </c>
+      <c r="G60" s="44">
+        <v>0</v>
+      </c>
+      <c r="H60" s="45">
+        <v>0</v>
+      </c>
+      <c r="I60" s="43">
+        <v>0</v>
+      </c>
+      <c r="J60" s="46">
+        <v>0</v>
+      </c>
+      <c r="K60" s="46">
+        <v>0</v>
+      </c>
+      <c r="L60" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="47">
+        <v>0</v>
+      </c>
+      <c r="E61" s="38">
+        <v>0</v>
+      </c>
+      <c r="F61" s="38">
+        <v>0</v>
+      </c>
+      <c r="G61" s="39">
+        <v>0</v>
+      </c>
+      <c r="H61" s="40">
+        <v>0</v>
+      </c>
+      <c r="I61" s="38">
+        <v>0</v>
+      </c>
+      <c r="J61" s="41">
+        <v>0</v>
+      </c>
+      <c r="K61" s="41">
+        <v>0</v>
+      </c>
+      <c r="L61" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="42">
+        <v>0</v>
+      </c>
+      <c r="E62" s="43">
+        <v>0</v>
+      </c>
+      <c r="F62" s="43">
+        <v>0</v>
+      </c>
+      <c r="G62" s="44">
+        <v>0</v>
+      </c>
+      <c r="H62" s="45">
+        <v>0</v>
+      </c>
+      <c r="I62" s="43">
+        <v>0</v>
+      </c>
+      <c r="J62" s="46">
+        <v>0</v>
+      </c>
+      <c r="K62" s="46">
+        <v>0</v>
+      </c>
+      <c r="L62" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="47">
+        <v>0</v>
+      </c>
+      <c r="E63" s="38">
+        <v>0</v>
+      </c>
+      <c r="F63" s="38">
+        <v>0</v>
+      </c>
+      <c r="G63" s="39">
+        <v>0</v>
+      </c>
+      <c r="H63" s="40">
+        <v>0</v>
+      </c>
+      <c r="I63" s="38">
+        <v>0</v>
+      </c>
+      <c r="J63" s="41">
+        <v>0</v>
+      </c>
+      <c r="K63" s="41">
+        <v>0</v>
+      </c>
+      <c r="L63" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="42">
+        <v>0</v>
+      </c>
+      <c r="E64" s="43">
+        <v>0</v>
+      </c>
+      <c r="F64" s="43">
+        <v>0</v>
+      </c>
+      <c r="G64" s="44">
+        <v>0</v>
+      </c>
+      <c r="H64" s="45">
+        <v>0</v>
+      </c>
+      <c r="I64" s="43">
+        <v>0</v>
+      </c>
+      <c r="J64" s="46">
+        <v>0</v>
+      </c>
+      <c r="K64" s="46">
+        <v>0</v>
+      </c>
+      <c r="L64" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="47">
+        <v>0</v>
+      </c>
+      <c r="E65" s="38">
+        <v>0</v>
+      </c>
+      <c r="F65" s="38">
+        <v>0</v>
+      </c>
+      <c r="G65" s="39">
+        <v>0</v>
+      </c>
+      <c r="H65" s="40">
+        <v>0</v>
+      </c>
+      <c r="I65" s="38">
+        <v>0</v>
+      </c>
+      <c r="J65" s="41">
+        <v>0</v>
+      </c>
+      <c r="K65" s="41">
+        <v>0</v>
+      </c>
+      <c r="L65" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="42">
+        <v>0</v>
+      </c>
+      <c r="E66" s="43">
+        <v>0</v>
+      </c>
+      <c r="F66" s="43">
+        <v>0</v>
+      </c>
+      <c r="G66" s="44">
+        <v>0</v>
+      </c>
+      <c r="H66" s="45">
+        <v>0</v>
+      </c>
+      <c r="I66" s="43">
+        <v>0</v>
+      </c>
+      <c r="J66" s="46">
+        <v>0</v>
+      </c>
+      <c r="K66" s="46">
+        <v>0</v>
+      </c>
+      <c r="L66" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="47">
+        <v>0</v>
+      </c>
+      <c r="E67" s="38">
+        <v>0</v>
+      </c>
+      <c r="F67" s="38">
+        <v>0</v>
+      </c>
+      <c r="G67" s="39">
+        <v>0</v>
+      </c>
+      <c r="H67" s="40">
+        <v>0</v>
+      </c>
+      <c r="I67" s="38">
+        <v>0</v>
+      </c>
+      <c r="J67" s="41">
+        <v>0</v>
+      </c>
+      <c r="K67" s="41">
+        <v>0</v>
+      </c>
+      <c r="L67" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="42">
+        <v>0</v>
+      </c>
+      <c r="E68" s="43">
+        <v>0</v>
+      </c>
+      <c r="F68" s="43">
+        <v>0</v>
+      </c>
+      <c r="G68" s="44">
+        <v>0</v>
+      </c>
+      <c r="H68" s="45">
+        <v>0</v>
+      </c>
+      <c r="I68" s="43">
+        <v>0</v>
+      </c>
+      <c r="J68" s="46">
+        <v>0</v>
+      </c>
+      <c r="K68" s="46">
+        <v>0</v>
+      </c>
+      <c r="L68" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="47">
+        <v>0</v>
+      </c>
+      <c r="E69" s="38">
+        <v>0</v>
+      </c>
+      <c r="F69" s="38">
+        <v>0</v>
+      </c>
+      <c r="G69" s="39">
+        <v>0</v>
+      </c>
+      <c r="H69" s="40">
+        <v>0</v>
+      </c>
+      <c r="I69" s="38">
+        <v>0</v>
+      </c>
+      <c r="J69" s="41">
+        <v>0</v>
+      </c>
+      <c r="K69" s="41">
+        <v>0</v>
+      </c>
+      <c r="L69" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="42">
+        <v>0</v>
+      </c>
+      <c r="E70" s="43">
+        <v>0</v>
+      </c>
+      <c r="F70" s="43">
+        <v>0</v>
+      </c>
+      <c r="G70" s="44">
+        <v>0</v>
+      </c>
+      <c r="H70" s="45">
+        <v>0</v>
+      </c>
+      <c r="I70" s="43">
+        <v>0</v>
+      </c>
+      <c r="J70" s="46">
+        <v>0</v>
+      </c>
+      <c r="K70" s="46">
+        <v>0</v>
+      </c>
+      <c r="L70" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="47">
+        <v>0</v>
+      </c>
+      <c r="E71" s="38">
+        <v>0</v>
+      </c>
+      <c r="F71" s="38">
+        <v>0</v>
+      </c>
+      <c r="G71" s="39">
+        <v>0</v>
+      </c>
+      <c r="H71" s="40">
+        <v>0</v>
+      </c>
+      <c r="I71" s="38">
+        <v>0</v>
+      </c>
+      <c r="J71" s="41">
+        <v>0</v>
+      </c>
+      <c r="K71" s="41">
+        <v>0</v>
+      </c>
+      <c r="L71" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="42">
+        <v>0</v>
+      </c>
+      <c r="E72" s="43">
+        <v>0</v>
+      </c>
+      <c r="F72" s="43">
+        <v>0</v>
+      </c>
+      <c r="G72" s="44">
+        <v>0</v>
+      </c>
+      <c r="H72" s="45">
+        <v>0</v>
+      </c>
+      <c r="I72" s="43">
+        <v>0</v>
+      </c>
+      <c r="J72" s="46">
+        <v>0</v>
+      </c>
+      <c r="K72" s="46">
+        <v>0</v>
+      </c>
+      <c r="L72" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="47">
+        <v>0</v>
+      </c>
+      <c r="E73" s="38">
+        <v>0</v>
+      </c>
+      <c r="F73" s="38">
+        <v>0</v>
+      </c>
+      <c r="G73" s="39">
+        <v>0</v>
+      </c>
+      <c r="H73" s="40">
+        <v>0</v>
+      </c>
+      <c r="I73" s="38">
+        <v>0</v>
+      </c>
+      <c r="J73" s="41">
+        <v>0</v>
+      </c>
+      <c r="K73" s="41">
+        <v>0</v>
+      </c>
+      <c r="L73" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="42">
+        <v>0</v>
+      </c>
+      <c r="E74" s="43">
+        <v>0</v>
+      </c>
+      <c r="F74" s="43">
+        <v>0</v>
+      </c>
+      <c r="G74" s="44">
+        <v>0</v>
+      </c>
+      <c r="H74" s="45">
+        <v>0</v>
+      </c>
+      <c r="I74" s="43">
+        <v>0</v>
+      </c>
+      <c r="J74" s="46">
+        <v>0</v>
+      </c>
+      <c r="K74" s="46">
+        <v>0</v>
+      </c>
+      <c r="L74" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="47">
+        <v>0</v>
+      </c>
+      <c r="E75" s="38">
+        <v>0</v>
+      </c>
+      <c r="F75" s="38">
+        <v>0</v>
+      </c>
+      <c r="G75" s="39">
+        <v>0</v>
+      </c>
+      <c r="H75" s="40">
+        <v>0</v>
+      </c>
+      <c r="I75" s="38">
+        <v>0</v>
+      </c>
+      <c r="J75" s="41">
+        <v>0</v>
+      </c>
+      <c r="K75" s="41">
+        <v>0</v>
+      </c>
+      <c r="L75" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="42">
+        <v>0</v>
+      </c>
+      <c r="E76" s="43">
+        <v>0</v>
+      </c>
+      <c r="F76" s="43">
+        <v>0</v>
+      </c>
+      <c r="G76" s="44">
+        <v>0</v>
+      </c>
+      <c r="H76" s="45">
+        <v>0</v>
+      </c>
+      <c r="I76" s="43">
+        <v>0</v>
+      </c>
+      <c r="J76" s="46">
+        <v>0</v>
+      </c>
+      <c r="K76" s="46">
+        <v>0</v>
+      </c>
+      <c r="L76" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="47">
+        <v>0</v>
+      </c>
+      <c r="E77" s="38">
+        <v>0</v>
+      </c>
+      <c r="F77" s="38">
+        <v>0</v>
+      </c>
+      <c r="G77" s="39">
+        <v>0</v>
+      </c>
+      <c r="H77" s="40">
+        <v>0</v>
+      </c>
+      <c r="I77" s="38">
+        <v>0</v>
+      </c>
+      <c r="J77" s="41">
+        <v>0</v>
+      </c>
+      <c r="K77" s="41">
+        <v>0</v>
+      </c>
+      <c r="L77" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="42">
+        <v>0</v>
+      </c>
+      <c r="E78" s="43">
+        <v>0</v>
+      </c>
+      <c r="F78" s="43">
+        <v>0</v>
+      </c>
+      <c r="G78" s="44">
+        <v>0</v>
+      </c>
+      <c r="H78" s="45">
+        <v>0</v>
+      </c>
+      <c r="I78" s="43">
+        <v>0</v>
+      </c>
+      <c r="J78" s="46">
+        <v>0</v>
+      </c>
+      <c r="K78" s="46">
+        <v>0</v>
+      </c>
+      <c r="L78" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="47">
+        <v>0</v>
+      </c>
+      <c r="E79" s="38">
+        <v>0</v>
+      </c>
+      <c r="F79" s="38">
+        <v>0</v>
+      </c>
+      <c r="G79" s="39">
+        <v>0</v>
+      </c>
+      <c r="H79" s="40">
+        <v>0</v>
+      </c>
+      <c r="I79" s="38">
+        <v>0</v>
+      </c>
+      <c r="J79" s="41">
+        <v>0</v>
+      </c>
+      <c r="K79" s="41">
+        <v>0</v>
+      </c>
+      <c r="L79" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="21"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="48">
+        <v>0</v>
+      </c>
+      <c r="E80" s="49">
+        <v>0</v>
+      </c>
+      <c r="F80" s="49">
+        <v>0</v>
+      </c>
+      <c r="G80" s="50">
+        <v>0</v>
+      </c>
+      <c r="H80" s="51">
+        <v>0</v>
+      </c>
+      <c r="I80" s="49">
+        <v>0</v>
+      </c>
+      <c r="J80" s="52">
+        <v>0</v>
+      </c>
+      <c r="K80" s="52">
+        <v>0</v>
+      </c>
+      <c r="L80" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A4:A26 A31:A53 A58:A80" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>